--- a/db/Budgie_2014_ME-Revenue.xlsx
+++ b/db/Budgie_2014_ME-Revenue.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="1040" windowWidth="24560" windowHeight="17340" tabRatio="500"/>
+    <workbookView xWindow="1040" yWindow="1040" windowWidth="30880" windowHeight="21920" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -136,7 +136,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -148,6 +148,22 @@
       <b/>
       <sz val="12"/>
       <name val="Helvetica Light"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -173,14 +189,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -513,13 +533,13 @@
   <dimension ref="A1:J78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="29.1640625" customWidth="1"/>
-    <col min="4" max="4" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="39.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="32.83203125" customWidth="1"/>
@@ -570,7 +590,7 @@
         <v>11</v>
       </c>
       <c r="D2" s="1">
-        <v>5875.1</v>
+        <v>5875100</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>12</v>
@@ -594,7 +614,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="1">
-        <v>6185.8</v>
+        <v>6185800</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>12</v>
@@ -618,7 +638,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="1">
-        <v>7117.2</v>
+        <v>7117200</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>12</v>
@@ -642,7 +662,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="1">
-        <v>2648.7</v>
+        <v>2648700</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>12</v>
@@ -668,7 +688,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="1">
-        <v>2740.4</v>
+        <v>2740400</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>12</v>
@@ -694,7 +714,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="1">
-        <v>2852</v>
+        <v>2852000</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>12</v>
@@ -720,7 +740,7 @@
         <v>11</v>
       </c>
       <c r="D8" s="1">
-        <v>1744.5</v>
+        <v>1744500</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>12</v>
@@ -746,7 +766,7 @@
         <v>11</v>
       </c>
       <c r="D9" s="1">
-        <v>2061.6</v>
+        <v>2061600</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>12</v>
@@ -772,7 +792,7 @@
         <v>11</v>
       </c>
       <c r="D10" s="1">
-        <v>2647.4</v>
+        <v>2647400</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>12</v>
@@ -798,7 +818,7 @@
         <v>11</v>
       </c>
       <c r="D11" s="1">
-        <v>190.7</v>
+        <v>190700</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>12</v>
@@ -824,7 +844,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="1">
-        <v>232.8</v>
+        <v>232800</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>12</v>
@@ -850,7 +870,7 @@
         <v>11</v>
       </c>
       <c r="D13" s="1">
-        <v>261.3</v>
+        <v>261300</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>12</v>
@@ -876,7 +896,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="1">
-        <v>981.1</v>
+        <v>981100</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>12</v>
@@ -902,7 +922,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="1">
-        <v>815.7</v>
+        <v>815700</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>12</v>
@@ -928,7 +948,7 @@
         <v>11</v>
       </c>
       <c r="D16" s="1">
-        <v>1001.8</v>
+        <v>1001800</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>12</v>
@@ -954,7 +974,7 @@
         <v>11</v>
       </c>
       <c r="D17" s="1">
-        <v>67.400000000000006</v>
+        <v>67400</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>12</v>
@@ -980,7 +1000,7 @@
         <v>11</v>
       </c>
       <c r="D18" s="1">
-        <v>49</v>
+        <v>49000</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>12</v>
@@ -1006,7 +1026,7 @@
         <v>11</v>
       </c>
       <c r="D19" s="1">
-        <v>49</v>
+        <v>49000</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>12</v>
@@ -1032,7 +1052,7 @@
         <v>11</v>
       </c>
       <c r="D20" s="1">
-        <v>108.8</v>
+        <v>108800</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>12</v>
@@ -1058,7 +1078,7 @@
         <v>11</v>
       </c>
       <c r="D21" s="1">
-        <v>115.6</v>
+        <v>115600</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>12</v>
@@ -1084,7 +1104,7 @@
         <v>11</v>
       </c>
       <c r="D22" s="1">
-        <v>125</v>
+        <v>125000</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>12</v>
@@ -1110,7 +1130,7 @@
         <v>11</v>
       </c>
       <c r="D23" s="1">
-        <v>133.9</v>
+        <v>133900</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>12</v>
@@ -1136,7 +1156,7 @@
         <v>11</v>
       </c>
       <c r="D24" s="1">
-        <v>170.6</v>
+        <v>170600</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>12</v>
@@ -1162,7 +1182,7 @@
         <v>11</v>
       </c>
       <c r="D25" s="1">
-        <v>180.8</v>
+        <v>180800</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>12</v>
@@ -1188,7 +1208,7 @@
         <v>11</v>
       </c>
       <c r="D26" s="1">
-        <v>697.7</v>
+        <v>697700</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>20</v>
@@ -1212,7 +1232,7 @@
         <v>11</v>
       </c>
       <c r="D27" s="1">
-        <v>698.2</v>
+        <v>698200</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>20</v>
@@ -1236,7 +1256,7 @@
         <v>11</v>
       </c>
       <c r="D28" s="1">
-        <v>746.9</v>
+        <v>746900</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>20</v>
@@ -1259,7 +1279,7 @@
         <v>11</v>
       </c>
       <c r="D29" s="1">
-        <v>223</v>
+        <v>223000</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>20</v>
@@ -1285,7 +1305,7 @@
         <v>11</v>
       </c>
       <c r="D30" s="1">
-        <v>240.7</v>
+        <v>240700</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>20</v>
@@ -1311,7 +1331,7 @@
         <v>11</v>
       </c>
       <c r="D31" s="1">
-        <v>288.8</v>
+        <v>288800</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>20</v>
@@ -1337,7 +1357,7 @@
         <v>11</v>
       </c>
       <c r="D32" s="1">
-        <v>179.9</v>
+        <v>179900</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>20</v>
@@ -1363,7 +1383,7 @@
         <v>11</v>
       </c>
       <c r="D33" s="1">
-        <v>190</v>
+        <v>190000</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>20</v>
@@ -1389,7 +1409,7 @@
         <v>11</v>
       </c>
       <c r="D34" s="1">
-        <v>176.5</v>
+        <v>176500</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>20</v>
@@ -1415,7 +1435,7 @@
         <v>11</v>
       </c>
       <c r="D35" s="1">
-        <v>294.8</v>
+        <v>294800</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>20</v>
@@ -1441,7 +1461,7 @@
         <v>11</v>
       </c>
       <c r="D36" s="1">
-        <v>267.5</v>
+        <v>267500</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>20</v>
@@ -1467,7 +1487,7 @@
         <v>11</v>
       </c>
       <c r="D37" s="1">
-        <v>281.60000000000002</v>
+        <v>281600</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>20</v>
@@ -1493,7 +1513,7 @@
         <v>11</v>
       </c>
       <c r="D38" s="1">
-        <v>1575.5</v>
+        <v>1575500</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>24</v>
@@ -1517,7 +1537,7 @@
         <v>11</v>
       </c>
       <c r="D39" s="1">
-        <v>1721.7</v>
+        <v>1721700</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>24</v>
@@ -1541,7 +1561,7 @@
         <v>11</v>
       </c>
       <c r="D40" s="1">
-        <v>1879.4</v>
+        <v>1879400</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>24</v>
@@ -1565,7 +1585,7 @@
         <v>11</v>
       </c>
       <c r="D41" s="1">
-        <v>560.5</v>
+        <v>560500</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>24</v>
@@ -1591,7 +1611,7 @@
         <v>11</v>
       </c>
       <c r="D42" s="1">
-        <v>606.1</v>
+        <v>606100</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>24</v>
@@ -1617,7 +1637,7 @@
         <v>11</v>
       </c>
       <c r="D43" s="1">
-        <v>689.3</v>
+        <v>689300</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>24</v>
@@ -1643,7 +1663,7 @@
         <v>11</v>
       </c>
       <c r="D44" s="1">
-        <v>1010</v>
+        <v>1010000</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>24</v>
@@ -1669,7 +1689,7 @@
         <v>11</v>
       </c>
       <c r="D45" s="1">
-        <v>1107.5</v>
+        <v>1107500</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>24</v>
@@ -1695,7 +1715,7 @@
         <v>11</v>
       </c>
       <c r="D46" s="1">
-        <v>1181.4000000000001</v>
+        <v>1181400</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>24</v>
@@ -1721,7 +1741,7 @@
         <v>11</v>
       </c>
       <c r="D47" s="1">
-        <v>5</v>
+        <v>5000</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>24</v>
@@ -1747,7 +1767,7 @@
         <v>11</v>
       </c>
       <c r="D48" s="1">
-        <v>8</v>
+        <v>8000</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>24</v>
@@ -1773,7 +1793,7 @@
         <v>11</v>
       </c>
       <c r="D49" s="1">
-        <v>8.6999999999999993</v>
+        <v>8700</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>24</v>
@@ -1799,7 +1819,7 @@
         <v>11</v>
       </c>
       <c r="D50" s="1">
-        <v>172.3</v>
+        <v>172300</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>28</v>
@@ -1823,7 +1843,7 @@
         <v>11</v>
       </c>
       <c r="D51" s="1">
-        <v>264.8</v>
+        <v>264800</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>28</v>
@@ -1847,7 +1867,7 @@
         <v>11</v>
       </c>
       <c r="D52" s="1">
-        <v>420</v>
+        <v>420000</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>28</v>
@@ -1871,7 +1891,7 @@
         <v>11</v>
       </c>
       <c r="D53" s="1">
-        <v>50</v>
+        <v>50000</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>28</v>
@@ -1897,7 +1917,7 @@
         <v>11</v>
       </c>
       <c r="D54" s="1">
-        <v>132</v>
+        <v>132000</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>28</v>
@@ -1923,7 +1943,7 @@
         <v>11</v>
       </c>
       <c r="D55" s="1">
-        <v>287</v>
+        <v>287000</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>28</v>
@@ -1949,7 +1969,7 @@
         <v>11</v>
       </c>
       <c r="D56" s="1">
-        <v>122.3</v>
+        <v>122300</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>28</v>
@@ -1975,7 +1995,7 @@
         <v>11</v>
       </c>
       <c r="D57" s="1">
-        <v>132.80000000000001</v>
+        <v>132800</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>28</v>
@@ -2001,7 +2021,7 @@
         <v>11</v>
       </c>
       <c r="D58" s="1">
-        <v>133</v>
+        <v>133000</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>28</v>
@@ -2027,7 +2047,7 @@
         <v>11</v>
       </c>
       <c r="D59" s="1">
-        <v>0.1</v>
+        <v>100</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>31</v>
@@ -2051,7 +2071,7 @@
         <v>11</v>
       </c>
       <c r="D60" s="1">
-        <v>4</v>
+        <v>4000</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>31</v>
@@ -2075,7 +2095,7 @@
         <v>11</v>
       </c>
       <c r="D61" s="1">
-        <v>4</v>
+        <v>4000</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>31</v>
@@ -2099,7 +2119,7 @@
         <v>11</v>
       </c>
       <c r="D62" s="1">
-        <v>106.4</v>
+        <v>106400</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>32</v>
@@ -2123,7 +2143,7 @@
         <v>11</v>
       </c>
       <c r="D63" s="1">
-        <v>230</v>
+        <v>230000</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>32</v>
@@ -2147,7 +2167,7 @@
         <v>11</v>
       </c>
       <c r="D64" s="1">
-        <v>200</v>
+        <v>200000</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>32</v>
@@ -2171,7 +2191,7 @@
         <v>11</v>
       </c>
       <c r="D65" s="1">
-        <v>144.4</v>
+        <v>144400</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>33</v>
@@ -2195,7 +2215,7 @@
         <v>11</v>
       </c>
       <c r="D66" s="1">
-        <v>36</v>
+        <v>36000</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>33</v>
@@ -2219,7 +2239,7 @@
         <v>11</v>
       </c>
       <c r="D67" s="1">
-        <v>36</v>
+        <v>36000</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>33</v>
@@ -2291,7 +2311,7 @@
         <v>11</v>
       </c>
       <c r="D70" s="1">
-        <v>600</v>
+        <v>600000</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>34</v>
@@ -2315,7 +2335,7 @@
         <v>11</v>
       </c>
       <c r="D71" s="1">
-        <v>63.8</v>
+        <v>63800</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>35</v>
@@ -2339,7 +2359,7 @@
         <v>11</v>
       </c>
       <c r="D72" s="1">
-        <v>130</v>
+        <v>130000</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>35</v>
@@ -2363,7 +2383,7 @@
         <v>11</v>
       </c>
       <c r="D73" s="1">
-        <v>130</v>
+        <v>130000</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>35</v>
@@ -2387,7 +2407,7 @@
         <v>11</v>
       </c>
       <c r="D74" s="1">
-        <v>930.8</v>
+        <v>930800</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>36</v>
@@ -2411,7 +2431,7 @@
         <v>11</v>
       </c>
       <c r="D75" s="1">
-        <v>1211.2</v>
+        <v>1211200</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>36</v>
@@ -2435,7 +2455,7 @@
         <v>11</v>
       </c>
       <c r="D76" s="1">
-        <v>1555</v>
+        <v>1555000</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>36</v>
@@ -2472,6 +2492,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/db/Budgie_2014_ME-Revenue.xlsx
+++ b/db/Budgie_2014_ME-Revenue.xlsx
@@ -4,11 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="1040" windowWidth="30880" windowHeight="21920" tabRatio="500"/>
+    <workbookView xWindow="13600" yWindow="1260" windowWidth="38180" windowHeight="24320" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$J$79</definedName>
+  </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -19,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="39">
   <si>
     <t>Country</t>
   </si>
@@ -130,6 +133,12 @@
   </si>
   <si>
     <t>Grants</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Total Revenue and Grants</t>
   </si>
 </sst>
 </file>
@@ -189,8 +198,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -198,9 +215,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -530,7 +555,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J78"/>
+  <dimension ref="A1:J81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
@@ -539,7 +564,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="29.1640625" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="39.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="32.83203125" customWidth="1"/>
@@ -590,15 +615,15 @@
         <v>11</v>
       </c>
       <c r="D2" s="1">
-        <v>5875100</v>
+        <v>9566000</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -614,15 +639,15 @@
         <v>11</v>
       </c>
       <c r="D3" s="1">
-        <v>6185800</v>
+        <v>10481600</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -638,15 +663,15 @@
         <v>11</v>
       </c>
       <c r="D4" s="1">
-        <v>7117200</v>
+        <v>12688500</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -662,17 +687,15 @@
         <v>11</v>
       </c>
       <c r="D5" s="1">
-        <v>2648700</v>
+        <v>5875100</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="1">
-        <v>301</v>
-      </c>
+      <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -688,17 +711,15 @@
         <v>11</v>
       </c>
       <c r="D6" s="1">
-        <v>2740400</v>
+        <v>6185800</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="1">
-        <v>301</v>
-      </c>
+      <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -714,17 +735,15 @@
         <v>11</v>
       </c>
       <c r="D7" s="1">
-        <v>2852000</v>
+        <v>7117200</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="1">
-        <v>301</v>
-      </c>
+      <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -740,17 +759,17 @@
         <v>11</v>
       </c>
       <c r="D8" s="1">
-        <v>1744500</v>
+        <v>2648700</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="1">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -766,17 +785,17 @@
         <v>11</v>
       </c>
       <c r="D9" s="1">
-        <v>2061600</v>
+        <v>2740400</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="1">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -792,17 +811,17 @@
         <v>11</v>
       </c>
       <c r="D10" s="1">
-        <v>2647400</v>
+        <v>2852000</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="1">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -818,17 +837,17 @@
         <v>11</v>
       </c>
       <c r="D11" s="1">
-        <v>190700</v>
+        <v>1744500</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="1">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -844,17 +863,17 @@
         <v>11</v>
       </c>
       <c r="D12" s="1">
-        <v>232800</v>
+        <v>2061600</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="1">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -870,17 +889,17 @@
         <v>11</v>
       </c>
       <c r="D13" s="1">
-        <v>261300</v>
+        <v>2647400</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="1">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -896,17 +915,17 @@
         <v>11</v>
       </c>
       <c r="D14" s="1">
-        <v>981100</v>
+        <v>190700</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="1">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -922,17 +941,17 @@
         <v>11</v>
       </c>
       <c r="D15" s="1">
-        <v>815700</v>
+        <v>232800</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F15" s="1">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -948,17 +967,17 @@
         <v>11</v>
       </c>
       <c r="D16" s="1">
-        <v>1001800</v>
+        <v>261300</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F16" s="1">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -974,17 +993,17 @@
         <v>11</v>
       </c>
       <c r="D17" s="1">
-        <v>67400</v>
+        <v>981100</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F17" s="1">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -1000,17 +1019,17 @@
         <v>11</v>
       </c>
       <c r="D18" s="1">
-        <v>49000</v>
+        <v>815700</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F18" s="1">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -1026,17 +1045,17 @@
         <v>11</v>
       </c>
       <c r="D19" s="1">
-        <v>49000</v>
+        <v>1001800</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="1">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -1052,17 +1071,17 @@
         <v>11</v>
       </c>
       <c r="D20" s="1">
-        <v>108800</v>
+        <v>67400</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F20" s="1">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -1078,17 +1097,17 @@
         <v>11</v>
       </c>
       <c r="D21" s="1">
-        <v>115600</v>
+        <v>49000</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F21" s="1">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -1104,17 +1123,17 @@
         <v>11</v>
       </c>
       <c r="D22" s="1">
-        <v>125000</v>
+        <v>49000</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F22" s="1">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -1130,17 +1149,17 @@
         <v>11</v>
       </c>
       <c r="D23" s="1">
-        <v>133900</v>
+        <v>108800</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F23" s="1">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -1156,17 +1175,17 @@
         <v>11</v>
       </c>
       <c r="D24" s="1">
-        <v>170600</v>
+        <v>115600</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F24" s="1">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -1182,17 +1201,17 @@
         <v>11</v>
       </c>
       <c r="D25" s="1">
-        <v>180800</v>
+        <v>125000</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F25" s="1">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -1208,15 +1227,17 @@
         <v>11</v>
       </c>
       <c r="D26" s="1">
-        <v>697700</v>
+        <v>133900</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F26" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="F26" s="1">
+        <v>307</v>
+      </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -1232,15 +1253,17 @@
         <v>11</v>
       </c>
       <c r="D27" s="1">
-        <v>698200</v>
+        <v>170600</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F27" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="F27" s="1">
+        <v>307</v>
+      </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -1256,14 +1279,17 @@
         <v>11</v>
       </c>
       <c r="D28" s="1">
-        <v>746900</v>
+        <v>180800</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="F28" s="1">
+        <v>307</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -1279,17 +1305,15 @@
         <v>11</v>
       </c>
       <c r="D29" s="1">
-        <v>223000</v>
+        <v>697700</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F29" s="1">
-        <v>308</v>
-      </c>
+      <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -1305,17 +1329,15 @@
         <v>11</v>
       </c>
       <c r="D30" s="1">
-        <v>240700</v>
+        <v>698200</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F30" s="1">
-        <v>308</v>
-      </c>
+      <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -1331,17 +1353,14 @@
         <v>11</v>
       </c>
       <c r="D31" s="1">
-        <v>288800</v>
+        <v>746900</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F31" s="1">
-        <v>308</v>
-      </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -1357,17 +1376,17 @@
         <v>11</v>
       </c>
       <c r="D32" s="1">
-        <v>179900</v>
+        <v>223000</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F32" s="1">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -1383,17 +1402,17 @@
         <v>11</v>
       </c>
       <c r="D33" s="1">
-        <v>190000</v>
+        <v>240700</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F33" s="1">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -1409,17 +1428,17 @@
         <v>11</v>
       </c>
       <c r="D34" s="1">
-        <v>176500</v>
+        <v>288800</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F34" s="1">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -1435,17 +1454,17 @@
         <v>11</v>
       </c>
       <c r="D35" s="1">
-        <v>294800</v>
+        <v>179900</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F35" s="1">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -1461,17 +1480,17 @@
         <v>11</v>
       </c>
       <c r="D36" s="1">
-        <v>267500</v>
+        <v>190000</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F36" s="1">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -1487,17 +1506,17 @@
         <v>11</v>
       </c>
       <c r="D37" s="1">
-        <v>281600</v>
+        <v>176500</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F37" s="1">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
@@ -1513,15 +1532,17 @@
         <v>11</v>
       </c>
       <c r="D38" s="1">
-        <v>1575500</v>
+        <v>294800</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F38" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="F38" s="1">
+        <v>310</v>
+      </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
@@ -1537,15 +1558,17 @@
         <v>11</v>
       </c>
       <c r="D39" s="1">
-        <v>1721700</v>
+        <v>267500</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F39" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="F39" s="1">
+        <v>310</v>
+      </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -1561,15 +1584,17 @@
         <v>11</v>
       </c>
       <c r="D40" s="1">
-        <v>1879400</v>
+        <v>281600</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F40" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="F40" s="1">
+        <v>310</v>
+      </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
@@ -1585,17 +1610,15 @@
         <v>11</v>
       </c>
       <c r="D41" s="1">
-        <v>560500</v>
+        <v>1575500</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F41" s="1">
-        <v>311</v>
-      </c>
+      <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
@@ -1611,17 +1634,15 @@
         <v>11</v>
       </c>
       <c r="D42" s="1">
-        <v>606100</v>
+        <v>1721700</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F42" s="1">
-        <v>311</v>
-      </c>
+      <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
@@ -1637,17 +1658,15 @@
         <v>11</v>
       </c>
       <c r="D43" s="1">
-        <v>689300</v>
+        <v>1879400</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F43" s="1">
-        <v>311</v>
-      </c>
+      <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
@@ -1663,17 +1682,17 @@
         <v>11</v>
       </c>
       <c r="D44" s="1">
-        <v>1010000</v>
+        <v>560500</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F44" s="1">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
@@ -1689,17 +1708,17 @@
         <v>11</v>
       </c>
       <c r="D45" s="1">
-        <v>1107500</v>
+        <v>606100</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F45" s="1">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
@@ -1715,17 +1734,17 @@
         <v>11</v>
       </c>
       <c r="D46" s="1">
-        <v>1181400</v>
+        <v>689300</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F46" s="1">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
@@ -1741,17 +1760,17 @@
         <v>11</v>
       </c>
       <c r="D47" s="1">
-        <v>5000</v>
+        <v>1010000</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F47" s="1">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G47" s="1"/>
       <c r="H47" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
@@ -1767,17 +1786,17 @@
         <v>11</v>
       </c>
       <c r="D48" s="1">
-        <v>8000</v>
+        <v>1107500</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F48" s="1">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
@@ -1793,17 +1812,17 @@
         <v>11</v>
       </c>
       <c r="D49" s="1">
-        <v>8700</v>
+        <v>1181400</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F49" s="1">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
@@ -1819,15 +1838,17 @@
         <v>11</v>
       </c>
       <c r="D50" s="1">
-        <v>172300</v>
+        <v>5000</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F50" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="F50" s="1">
+        <v>313</v>
+      </c>
       <c r="G50" s="1"/>
       <c r="H50" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
@@ -1843,15 +1864,17 @@
         <v>11</v>
       </c>
       <c r="D51" s="1">
-        <v>264800</v>
+        <v>8000</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F51" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="F51" s="1">
+        <v>313</v>
+      </c>
       <c r="G51" s="1"/>
       <c r="H51" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
@@ -1867,15 +1890,17 @@
         <v>11</v>
       </c>
       <c r="D52" s="1">
-        <v>420000</v>
+        <v>8700</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F52" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="F52" s="1">
+        <v>313</v>
+      </c>
       <c r="G52" s="1"/>
       <c r="H52" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
@@ -1891,17 +1916,15 @@
         <v>11</v>
       </c>
       <c r="D53" s="1">
-        <v>50000</v>
+        <v>172300</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F53" s="1">
-        <v>314</v>
-      </c>
+      <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
@@ -1917,17 +1940,15 @@
         <v>11</v>
       </c>
       <c r="D54" s="1">
-        <v>132000</v>
+        <v>264800</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F54" s="1">
-        <v>314</v>
-      </c>
+      <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
@@ -1943,17 +1964,15 @@
         <v>11</v>
       </c>
       <c r="D55" s="1">
-        <v>287000</v>
+        <v>420000</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F55" s="1">
-        <v>314</v>
-      </c>
+      <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
@@ -1969,17 +1988,17 @@
         <v>11</v>
       </c>
       <c r="D56" s="1">
-        <v>122300</v>
+        <v>50000</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F56" s="1">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G56" s="1"/>
       <c r="H56" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
@@ -1995,17 +2014,17 @@
         <v>11</v>
       </c>
       <c r="D57" s="1">
-        <v>132800</v>
+        <v>132000</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F57" s="1">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G57" s="1"/>
       <c r="H57" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
@@ -2021,17 +2040,17 @@
         <v>11</v>
       </c>
       <c r="D58" s="1">
-        <v>133000</v>
+        <v>287000</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F58" s="1">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G58" s="1"/>
       <c r="H58" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
@@ -2047,15 +2066,17 @@
         <v>11</v>
       </c>
       <c r="D59" s="1">
-        <v>100</v>
+        <v>122300</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F59" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="F59" s="1">
+        <v>315</v>
+      </c>
       <c r="G59" s="1"/>
       <c r="H59" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
@@ -2071,15 +2092,17 @@
         <v>11</v>
       </c>
       <c r="D60" s="1">
-        <v>4000</v>
+        <v>132800</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F60" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="F60" s="1">
+        <v>315</v>
+      </c>
       <c r="G60" s="1"/>
       <c r="H60" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
@@ -2095,15 +2118,17 @@
         <v>11</v>
       </c>
       <c r="D61" s="1">
-        <v>4000</v>
+        <v>133000</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F61" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="F61" s="1">
+        <v>315</v>
+      </c>
       <c r="G61" s="1"/>
       <c r="H61" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
@@ -2119,15 +2144,15 @@
         <v>11</v>
       </c>
       <c r="D62" s="1">
-        <v>106400</v>
+        <v>100</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
@@ -2143,15 +2168,15 @@
         <v>11</v>
       </c>
       <c r="D63" s="1">
-        <v>230000</v>
+        <v>4000</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
@@ -2167,15 +2192,15 @@
         <v>11</v>
       </c>
       <c r="D64" s="1">
-        <v>200000</v>
+        <v>4000</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
@@ -2191,15 +2216,15 @@
         <v>11</v>
       </c>
       <c r="D65" s="1">
-        <v>144400</v>
+        <v>106400</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
@@ -2215,15 +2240,15 @@
         <v>11</v>
       </c>
       <c r="D66" s="1">
-        <v>36000</v>
+        <v>230000</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
@@ -2239,15 +2264,15 @@
         <v>11</v>
       </c>
       <c r="D67" s="1">
-        <v>36000</v>
+        <v>200000</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
@@ -2263,15 +2288,15 @@
         <v>11</v>
       </c>
       <c r="D68" s="1">
-        <v>0</v>
+        <v>144400</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
@@ -2287,15 +2312,15 @@
         <v>11</v>
       </c>
       <c r="D69" s="1">
-        <v>0</v>
+        <v>36000</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
@@ -2311,15 +2336,15 @@
         <v>11</v>
       </c>
       <c r="D70" s="1">
-        <v>600000</v>
+        <v>36000</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
@@ -2335,15 +2360,15 @@
         <v>11</v>
       </c>
       <c r="D71" s="1">
-        <v>63800</v>
+        <v>0</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
@@ -2359,15 +2384,15 @@
         <v>11</v>
       </c>
       <c r="D72" s="1">
-        <v>130000</v>
+        <v>0</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
@@ -2383,15 +2408,15 @@
         <v>11</v>
       </c>
       <c r="D73" s="1">
-        <v>130000</v>
+        <v>600000</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
@@ -2407,15 +2432,15 @@
         <v>11</v>
       </c>
       <c r="D74" s="1">
-        <v>930800</v>
+        <v>63800</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
@@ -2431,15 +2456,15 @@
         <v>11</v>
       </c>
       <c r="D75" s="1">
-        <v>1211200</v>
+        <v>130000</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
@@ -2455,42 +2480,115 @@
         <v>11</v>
       </c>
       <c r="D76" s="1">
-        <v>1555000</v>
+        <v>130000</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
     </row>
     <row r="77" spans="1:10">
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
+      <c r="A77" t="s">
+        <v>10</v>
+      </c>
+      <c r="B77" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77" s="1">
+        <v>930800</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
+      <c r="H77" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
     </row>
     <row r="78" spans="1:10">
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
+      <c r="A78" t="s">
+        <v>10</v>
+      </c>
+      <c r="B78" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D78" s="1">
+        <v>1211200</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
+      <c r="H78" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
     </row>
+    <row r="79" spans="1:10">
+      <c r="A79" t="s">
+        <v>10</v>
+      </c>
+      <c r="B79" s="1">
+        <v>2014</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D79" s="1">
+        <v>1555000</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+    </row>
+    <row r="81" spans="2:10">
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+    </row>
   </sheetData>
+  <autoFilter ref="B1:J79"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/db/Budgie_2014_ME-Revenue.xlsx
+++ b/db/Budgie_2014_ME-Revenue.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="13600" yWindow="1260" windowWidth="38180" windowHeight="24320" tabRatio="500"/>
+    <workbookView xWindow="8360" yWindow="3540" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -558,7 +558,7 @@
   <dimension ref="A1:J81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2590,7 +2590,6 @@
   </sheetData>
   <autoFilter ref="B1:J79"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/db/Budgie_2014_ME-Revenue.xlsx
+++ b/db/Budgie_2014_ME-Revenue.xlsx
@@ -69,9 +69,6 @@
     <t>Company tax</t>
   </si>
   <si>
-    <t>DWT</t>
-  </si>
-  <si>
     <t>Mining and Petroleum Taxes</t>
   </si>
   <si>
@@ -139,6 +136,9 @@
   </si>
   <si>
     <t>Total Revenue and Grants</t>
+  </si>
+  <si>
+    <t>Dividend Withholding Tax</t>
   </si>
 </sst>
 </file>
@@ -198,8 +198,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -215,17 +219,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="15">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -558,7 +566,7 @@
   <dimension ref="A1:J81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -618,12 +626,12 @@
         <v>9566000</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -642,12 +650,12 @@
         <v>10481600</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -666,12 +674,12 @@
         <v>12688500</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -925,7 +933,7 @@
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -951,7 +959,7 @@
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -977,7 +985,7 @@
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -1003,7 +1011,7 @@
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -1029,7 +1037,7 @@
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -1055,7 +1063,7 @@
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -1081,7 +1089,7 @@
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -1107,7 +1115,7 @@
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -1133,7 +1141,7 @@
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -1159,7 +1167,7 @@
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -1185,7 +1193,7 @@
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -1211,7 +1219,7 @@
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -1237,7 +1245,7 @@
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -1263,7 +1271,7 @@
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -1289,7 +1297,7 @@
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -1308,12 +1316,12 @@
         <v>697700</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -1332,12 +1340,12 @@
         <v>698200</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -1356,11 +1364,11 @@
         <v>746900</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -1379,14 +1387,14 @@
         <v>223000</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F32" s="1">
         <v>308</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -1405,14 +1413,14 @@
         <v>240700</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F33" s="1">
         <v>308</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -1431,14 +1439,14 @@
         <v>288800</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F34" s="1">
         <v>308</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -1457,14 +1465,14 @@
         <v>179900</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F35" s="1">
         <v>309</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -1483,14 +1491,14 @@
         <v>190000</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F36" s="1">
         <v>309</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -1509,14 +1517,14 @@
         <v>176500</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F37" s="1">
         <v>309</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
@@ -1535,14 +1543,14 @@
         <v>294800</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F38" s="1">
         <v>310</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
@@ -1561,14 +1569,14 @@
         <v>267500</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F39" s="1">
         <v>310</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -1587,14 +1595,14 @@
         <v>281600</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F40" s="1">
         <v>310</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
@@ -1613,12 +1621,12 @@
         <v>1575500</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
@@ -1637,12 +1645,12 @@
         <v>1721700</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
@@ -1661,12 +1669,12 @@
         <v>1879400</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
@@ -1685,14 +1693,14 @@
         <v>560500</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F44" s="1">
         <v>311</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
@@ -1711,14 +1719,14 @@
         <v>606100</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F45" s="1">
         <v>311</v>
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
@@ -1737,14 +1745,14 @@
         <v>689300</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F46" s="1">
         <v>311</v>
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
@@ -1763,14 +1771,14 @@
         <v>1010000</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F47" s="1">
         <v>312</v>
       </c>
       <c r="G47" s="1"/>
       <c r="H47" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
@@ -1789,14 +1797,14 @@
         <v>1107500</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F48" s="1">
         <v>312</v>
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
@@ -1815,14 +1823,14 @@
         <v>1181400</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F49" s="1">
         <v>312</v>
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
@@ -1841,14 +1849,14 @@
         <v>5000</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F50" s="1">
         <v>313</v>
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
@@ -1867,14 +1875,14 @@
         <v>8000</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F51" s="1">
         <v>313</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
@@ -1893,14 +1901,14 @@
         <v>8700</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F52" s="1">
         <v>313</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
@@ -1919,12 +1927,12 @@
         <v>172300</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
@@ -1943,12 +1951,12 @@
         <v>264800</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
@@ -1967,12 +1975,12 @@
         <v>420000</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
@@ -1991,14 +1999,14 @@
         <v>50000</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F56" s="1">
         <v>314</v>
       </c>
       <c r="G56" s="1"/>
       <c r="H56" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
@@ -2017,14 +2025,14 @@
         <v>132000</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F57" s="1">
         <v>314</v>
       </c>
       <c r="G57" s="1"/>
       <c r="H57" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
@@ -2043,14 +2051,14 @@
         <v>287000</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F58" s="1">
         <v>314</v>
       </c>
       <c r="G58" s="1"/>
       <c r="H58" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
@@ -2069,14 +2077,14 @@
         <v>122300</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F59" s="1">
         <v>315</v>
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
@@ -2095,14 +2103,14 @@
         <v>132800</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F60" s="1">
         <v>315</v>
       </c>
       <c r="G60" s="1"/>
       <c r="H60" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
@@ -2121,14 +2129,14 @@
         <v>133000</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F61" s="1">
         <v>315</v>
       </c>
       <c r="G61" s="1"/>
       <c r="H61" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
@@ -2147,12 +2155,12 @@
         <v>100</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
@@ -2171,12 +2179,12 @@
         <v>4000</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
@@ -2195,12 +2203,12 @@
         <v>4000</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
@@ -2219,12 +2227,12 @@
         <v>106400</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
@@ -2243,12 +2251,12 @@
         <v>230000</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
@@ -2267,12 +2275,12 @@
         <v>200000</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
@@ -2291,12 +2299,12 @@
         <v>144400</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
@@ -2315,12 +2323,12 @@
         <v>36000</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
@@ -2339,12 +2347,12 @@
         <v>36000</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
@@ -2363,12 +2371,12 @@
         <v>0</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
@@ -2387,12 +2395,12 @@
         <v>0</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
@@ -2411,12 +2419,12 @@
         <v>600000</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
@@ -2435,12 +2443,12 @@
         <v>63800</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
@@ -2459,12 +2467,12 @@
         <v>130000</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
@@ -2483,12 +2491,12 @@
         <v>130000</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
@@ -2507,12 +2515,12 @@
         <v>930800</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
@@ -2531,12 +2539,12 @@
         <v>1211200</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
@@ -2555,12 +2563,12 @@
         <v>1555000</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
@@ -2590,6 +2598,7 @@
   </sheetData>
   <autoFilter ref="B1:J79"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
